--- a/render/public/meli.xlsx
+++ b/render/public/meli.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>title</t>
   </si>
@@ -23,7 +23,7 @@
     <t>category_id</t>
   </si>
   <si>
-    <t>MCO455863</t>
+    <t>MCO9356</t>
   </si>
   <si>
     <t>price</t>
@@ -33,18 +33,6 @@
   </si>
   <si>
     <t>pictures</t>
-  </si>
-  <si>
-    <t>MOTO_TYPE</t>
-  </si>
-  <si>
-    <t>BRAND</t>
-  </si>
-  <si>
-    <t>MODEL</t>
-  </si>
-  <si>
-    <t>VEHICLE_YEAR</t>
   </si>
   <si>
     <t>description</t>
@@ -383,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,7 +379,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,20 +398,8 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>2</v>
       </c>
